--- a/Assets/Docs/StarToPlanetResources.xlsx
+++ b/Assets/Docs/StarToPlanetResources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!!WORK\space\Space\Assets\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FB5F26-20E7-4B33-A0C5-72BCA300ED33}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE5C1BE-E665-42DF-BE1A-7A2FAC8A8DE1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{012EE2A3-47CF-4793-A907-6FCE46DA0376}"/>
   </bookViews>
@@ -580,7 +580,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
